--- a/inst/extdata/example2_conf.xlsx
+++ b/inst/extdata/example2_conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelsola/Github-Collabs/mocaredd/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B3464-62DA-C14F-AC9F-F5FCC43D2778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{392CC95F-3136-ED4B-81E7-C6EACCDF2B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,8 @@
     <sheet name="time_periods" sheetId="4" r:id="rId3"/>
     <sheet name="AD_lu_transitions" sheetId="10" r:id="rId4"/>
     <sheet name="c_stocks" sheetId="9" r:id="rId5"/>
+    <sheet name="c_stocks_withPT" sheetId="11" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="132">
   <si>
     <t>trans_no</t>
   </si>
@@ -226,9 +224,6 @@
   </si>
   <si>
     <t>If degradation is a ratio of intact forest Cstock, list of pools separated by coma. Any combination of AGB, BGB, DW, LI, SOC or NA if not applicable. Note: the pools not listed in dg_pool will be excluded when calculating the initial vs final Cstocks</t>
-  </si>
-  <si>
-    <t>AGB, BGB</t>
   </si>
   <si>
     <t>c_fraction_se</t>
@@ -307,30 +302,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Csh</t>
-  </si>
-  <si>
-    <t>Ccn</t>
-  </si>
-  <si>
-    <t>Cot</t>
-  </si>
-  <si>
-    <t>Cpe</t>
-  </si>
-  <si>
-    <t>Cpo</t>
-  </si>
-  <si>
-    <t>Cns</t>
-  </si>
-  <si>
-    <t>Sv</t>
-  </si>
-  <si>
-    <t>Sh</t>
-  </si>
-  <si>
     <t>Cropland</t>
   </si>
   <si>
@@ -376,6 +347,102 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>Mo(d)</t>
+  </si>
+  <si>
+    <t>C(d)</t>
+  </si>
+  <si>
+    <t>Fri(d)</t>
+  </si>
+  <si>
+    <t>Low Altitude Forest on Plains and Fans</t>
+  </si>
+  <si>
+    <t>Low Altitude Forest on Uplands</t>
+  </si>
+  <si>
+    <t>Lower Montane Forest</t>
+  </si>
+  <si>
+    <t>Dry Seasonal Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swamp Forest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodland </t>
+  </si>
+  <si>
+    <t>Littoral Forest</t>
+  </si>
+  <si>
+    <t>Savanna</t>
+  </si>
+  <si>
+    <t>Scrub</t>
+  </si>
+  <si>
+    <t>Mangrove</t>
+  </si>
+  <si>
+    <t>Degraded Low Altitude Forest on Plains and Fans</t>
+  </si>
+  <si>
+    <t>Degraded Low Altitude Forest on Uplands</t>
+  </si>
+  <si>
+    <t>Degraded Lower Montane Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degraded Woodland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degraded Swamp Forest </t>
+  </si>
+  <si>
+    <t>Degraded Dry Seasonal Forest</t>
+  </si>
+  <si>
+    <t>Degraded Littoral Forest</t>
+  </si>
+  <si>
+    <t>Degraded Savanna</t>
+  </si>
+  <si>
+    <t>Degraded Scrub</t>
+  </si>
+  <si>
+    <t>Degraded Mangrove</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Sett</t>
+  </si>
+  <si>
+    <t>Montane Forest</t>
+  </si>
+  <si>
+    <t>Montane Coniferous Forest</t>
+  </si>
+  <si>
+    <t>Seral Forest</t>
+  </si>
+  <si>
+    <t>Degraded Montane Forest</t>
+  </si>
+  <si>
+    <t>Degraded Montane Coniferous Forest</t>
+  </si>
+  <si>
+    <t>Degraded Seral Forest</t>
+  </si>
+  <si>
+    <t>C_all</t>
   </si>
 </sst>
 </file>
@@ -433,7 +500,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +549,24 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -495,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,6 +599,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,172 +617,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="about"/>
-      <sheetName val="Formula"/>
-      <sheetName val="Inputs"/>
-      <sheetName val="Sims"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="M6" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>P(d)</v>
-          </cell>
-          <cell r="O6" t="str">
-            <v>Low Altitude Forest on Plains and Fans</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7" t="str">
-            <v>H</v>
-          </cell>
-          <cell r="N7" t="str">
-            <v>H(d)</v>
-          </cell>
-          <cell r="O7" t="str">
-            <v>Low Altitude Forest on Uplands</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8" t="str">
-            <v>L</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>L(d)</v>
-          </cell>
-          <cell r="O8" t="str">
-            <v>Lower Montane Forest</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9" t="str">
-            <v>Mo</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>Mo(d)</v>
-          </cell>
-          <cell r="O9" t="str">
-            <v>Montane Forest</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N10" t="str">
-            <v>C(d)</v>
-          </cell>
-          <cell r="O10" t="str">
-            <v>Montane Coniferous Forest</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11" t="str">
-            <v>D</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>D(d)</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v>Dry Seasonal Forest</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>B(d)</v>
-          </cell>
-          <cell r="O12" t="str">
-            <v>Littoral Forest</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13" t="str">
-            <v>Fri</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>Fri(d)</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>Seral Forest</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14" t="str">
-            <v>Fsw</v>
-          </cell>
-          <cell r="N14" t="str">
-            <v>Fsw(d)</v>
-          </cell>
-          <cell r="O14" t="str">
-            <v xml:space="preserve">Swamp Forest </v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15" t="str">
-            <v>Sa</v>
-          </cell>
-          <cell r="N15" t="str">
-            <v>Sa(d)</v>
-          </cell>
-          <cell r="O15" t="str">
-            <v>Savanna</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16" t="str">
-            <v>W</v>
-          </cell>
-          <cell r="N16" t="str">
-            <v>W(d)</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v xml:space="preserve">Woodland </v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17" t="str">
-            <v>Sc</v>
-          </cell>
-          <cell r="N17" t="str">
-            <v>Sc(d)</v>
-          </cell>
-          <cell r="O17" t="str">
-            <v>Scrub</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18" t="str">
-            <v>M</v>
-          </cell>
-          <cell r="N18" t="str">
-            <v>M(d)</v>
-          </cell>
-          <cell r="O18" t="str">
-            <v>Mangrove</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,7 +911,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="186" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1021,7 +943,7 @@
         <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>56</v>
@@ -1044,7 +966,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>0.47</v>
@@ -1053,7 +975,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1132,10 +1054,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A10" zoomScale="127" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1144,7 +1066,7 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1199,7 +1121,7 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>C2&amp;"_"&amp;E2&amp;"_"&amp;G2</f>
-        <v>T1_P_Csh</v>
+        <v>T1_P_Crop</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>36</v>
@@ -1208,23 +1130,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E2,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I2" s="8">
-        <v>15659</v>
+        <v>23637</v>
       </c>
       <c r="J2" s="8">
-        <v>4740</v>
+        <v>7155</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>14</v>
@@ -1238,8 +1159,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:B48" si="0">C3&amp;"_"&amp;E3&amp;"_"&amp;G3</f>
-        <v>T1_H_Csh</v>
+        <f t="shared" ref="B3:B35" si="0">C3&amp;"_"&amp;E3&amp;"_"&amp;G3</f>
+        <v>T1_H_Crop</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>36</v>
@@ -1248,23 +1169,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E3,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I3" s="8">
-        <v>12277</v>
+        <v>20217</v>
       </c>
       <c r="J3" s="8">
-        <v>3717</v>
+        <v>6120</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>14</v>
@@ -1279,7 +1199,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>T1_L_Csh</v>
+        <v>T1_L_Crop</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -1288,23 +1208,22 @@
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E4,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I4" s="8">
-        <v>8336</v>
+        <v>10788</v>
       </c>
       <c r="J4" s="8">
-        <v>2523</v>
+        <v>3266</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>14</v>
@@ -1319,7 +1238,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>T1_D_Csh</v>
+        <v>T1_D_Crop</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -1328,17 +1247,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E5,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
+        <v>67</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I5" s="8">
         <v>1963</v>
@@ -1355,11 +1273,11 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>T1_P_Ccn</v>
+        <v>T1_Fsw_Crop</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>36</v>
@@ -1368,23 +1286,22 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E6,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I6" s="8">
-        <v>1957</v>
+        <v>3995</v>
       </c>
       <c r="J6" s="8">
-        <v>592</v>
+        <v>1209</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>14</v>
@@ -1395,11 +1312,11 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>T1_H_Cot</v>
+        <v>T1_W_Crop</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>36</v>
@@ -1408,23 +1325,22 @@
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E7,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I7" s="8">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="J7" s="8">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>14</v>
@@ -1435,11 +1351,11 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>T1_L_Cpe</v>
+        <v>T1_H_Sett</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -1448,23 +1364,22 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E8,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
+        <v>65</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I8" s="8">
-        <v>493</v>
+        <v>1978</v>
       </c>
       <c r="J8" s="8">
-        <v>149</v>
+        <v>599</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>14</v>
@@ -1474,923 +1389,894 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_Fsw_Cpe</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="9">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_P(d)_Crop</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="9">
+        <v>57973</v>
+      </c>
+      <c r="J9" s="9">
+        <v>15461</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_H(d)_Crop</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="9">
+        <v>13837</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3690</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_L(d)_Crop</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="9">
+        <v>15937</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4250</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_W(d)_Crop</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1963</v>
+      </c>
+      <c r="J12" s="9">
+        <v>524</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_Fsw(d)_Crop</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1963</v>
+      </c>
+      <c r="J13" s="9">
+        <v>524</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_L(d)_Sett</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1953</v>
+      </c>
+      <c r="J14" s="9">
+        <v>521</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_P_P(d)</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="10">
+        <v>333348</v>
+      </c>
+      <c r="J15" s="10">
+        <v>29086</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_H_H(d)</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="10">
+        <v>331690</v>
+      </c>
+      <c r="J16" s="10">
+        <v>28941</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_L_L(d)</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="10">
+        <v>24162</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2108</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_D_D(d)</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="10">
+        <v>29440</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2569</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_B_B(d)</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1979</v>
+      </c>
+      <c r="J19" s="10">
+        <v>173</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_Fsw_Fsw(d)</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E9,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="10">
+        <v>15701</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1370</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>31</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_Sa_Sa(d)</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="10">
+        <v>5867</v>
+      </c>
+      <c r="J21" s="10">
+        <v>512</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>32</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_W_W(d)</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="10">
+        <v>13739</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1199</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>33</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_Sc_Sc(d)</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1963</v>
+      </c>
+      <c r="J23" s="10">
+        <v>171</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>34</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>T1_M_M(d)</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1946</v>
+      </c>
+      <c r="J24" s="10">
+        <v>170</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_P_Crop</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1957</v>
+      </c>
+      <c r="J25" s="8">
+        <v>539</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>36</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_H_Crop</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="8">
+        <v>5867</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1616</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_L_Crop</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J27" s="8">
+        <v>553</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_P_Sett</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1988</v>
+      </c>
+      <c r="J28" s="8">
+        <v>548</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>39</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_P(d)_Crop</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9">
+        <v>6346</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1503</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>T2_H(d)_Crop</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="8">
-        <v>2007</v>
-      </c>
-      <c r="J9" s="8">
-        <v>608</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P_Cpo</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E10,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="8">
-        <v>4014</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1215</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_H_Cpo</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E11,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="8">
-        <v>5978</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1810</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_L_Cns</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E12,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1959</v>
-      </c>
-      <c r="J12" s="8">
-        <v>593</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_Fsw_Csh</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E13,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1988</v>
-      </c>
-      <c r="J13" s="8">
-        <v>602</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_W_Csh</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E14,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1957</v>
-      </c>
-      <c r="J14" s="8">
-        <v>592</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P_Cns</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E15,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2007</v>
-      </c>
-      <c r="J15" s="8">
-        <v>608</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_H_Sv</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E16,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1978</v>
-      </c>
-      <c r="J16" s="8">
-        <v>599</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P(d)_Csh</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E17,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="9">
-        <v>16182</v>
-      </c>
-      <c r="J17" s="9">
-        <v>4316</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_H(d)_Csh</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E18,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="9">
-        <v>5901</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1574</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_L(d)_Csh</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E19,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="9">
-        <v>15937</v>
-      </c>
-      <c r="J19" s="9">
-        <v>4250</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_W(d)_Csh</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E20,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1963</v>
-      </c>
-      <c r="J20" s="9">
-        <v>524</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P(d)_Cpo</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E21,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="9">
-        <v>39828</v>
-      </c>
-      <c r="J21" s="9">
-        <v>10622</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_H(d)_Cpo</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E22,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="9">
-        <v>7936</v>
-      </c>
-      <c r="J22" s="9">
-        <v>2116</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P(d)_Csh</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E23,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1963</v>
-      </c>
-      <c r="J23" s="9">
-        <v>524</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_Fsw(d)_Csh</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E24,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1963</v>
-      </c>
-      <c r="J24" s="9">
-        <v>524</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_L(d)_Sh</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E25,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1953</v>
-      </c>
-      <c r="J25" s="9">
-        <v>521</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_P_P(d)</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E26,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G26,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="I26" s="10">
-        <v>333348</v>
-      </c>
-      <c r="J26" s="10">
-        <v>29086</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_H_H(d)</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E27,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G27,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="I27" s="10">
-        <v>331690</v>
-      </c>
-      <c r="J27" s="10">
-        <v>28941</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_L_L(d)</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E28,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G28,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="I28" s="10">
-        <v>24162</v>
-      </c>
-      <c r="J28" s="10">
-        <v>2108</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_D_D(d)</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E29,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G29,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
-      </c>
-      <c r="I29" s="10">
-        <v>29440</v>
-      </c>
-      <c r="J29" s="10">
-        <v>2569</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T1_B_B(d)</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E30,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Littoral Forest</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G30,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Littoral Forest</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1979</v>
-      </c>
-      <c r="J30" s="10">
-        <v>173</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="F30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5900</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1397</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>T1_Fsw_Fsw(d)</v>
+        <v>T2_P_P(d)</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E31,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
+        <v>76</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G31,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
+        <v>71</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="I31" s="10">
-        <v>15701</v>
+        <v>47304</v>
       </c>
       <c r="J31" s="10">
-        <v>1370</v>
+        <v>3884</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>14</v>
@@ -2401,37 +2287,35 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>T1_Sa_Sa(d)</v>
+        <v>T2_H_H(d)</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E32,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Savanna</v>
+        <v>77</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G32,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Savanna</v>
+        <v>72</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="I32" s="10">
-        <v>5867</v>
+        <v>53277</v>
       </c>
       <c r="J32" s="10">
-        <v>512</v>
+        <v>4375</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>14</v>
@@ -2442,37 +2326,35 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>T1_W_W(d)</v>
+        <v>T2_L_L(d)</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E33,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
+        <v>78</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G33,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
+        <v>73</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="I33" s="10">
-        <v>13739</v>
+        <v>5929</v>
       </c>
       <c r="J33" s="10">
-        <v>1199</v>
+        <v>487</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>14</v>
@@ -2483,37 +2365,35 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>T1_Sc_Sc(d)</v>
+        <v>T2_Fsw_Fsw(d)</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E34,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
+        <v>69</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G34,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
+        <v>89</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="I34" s="10">
-        <v>1963</v>
+        <v>3905</v>
       </c>
       <c r="J34" s="10">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>14</v>
@@ -2524,37 +2404,35 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>T1_M_M(d)</v>
+        <v>T2_Sc_Sc(d)</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E35,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Mangrove</v>
+        <v>83</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G35,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Mangrove</v>
+        <v>91</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="I35" s="10">
-        <v>1946</v>
+        <v>1961</v>
       </c>
       <c r="J35" s="10">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>14</v>
@@ -2562,531 +2440,6 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_P_Csh</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E36,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="8">
-        <v>1957</v>
-      </c>
-      <c r="J36" s="8">
-        <v>539</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_H_Csh</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E37,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="8">
-        <v>5867</v>
-      </c>
-      <c r="J37" s="8">
-        <v>1616</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_L_Csh</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E38,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2007</v>
-      </c>
-      <c r="J38" s="8">
-        <v>553</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_P_Sv</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f>_xlfn.XLOOKUP(E39,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="8">
-        <v>1988</v>
-      </c>
-      <c r="J39" s="8">
-        <v>548</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_P(d)_Csh</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E40,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="9">
-        <v>2422</v>
-      </c>
-      <c r="J40" s="9">
-        <v>574</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_H(d)_Csh</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E41,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="9">
-        <v>3892</v>
-      </c>
-      <c r="J41" s="9">
-        <v>922</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_P(d)_Cpo</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E42,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="9">
-        <v>3924</v>
-      </c>
-      <c r="J42" s="9">
-        <v>929</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_H(d)_Cpo</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="9" t="str">
-        <f>_xlfn.XLOOKUP(E43,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="9">
-        <v>2007</v>
-      </c>
-      <c r="J43" s="9">
-        <v>475</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_P_P(d)</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E44,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G44,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
-      </c>
-      <c r="I44" s="10">
-        <v>47304</v>
-      </c>
-      <c r="J44" s="10">
-        <v>3884</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_H_H(d)</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E45,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G45,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
-      </c>
-      <c r="I45" s="10">
-        <v>53277</v>
-      </c>
-      <c r="J45" s="10">
-        <v>4375</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_L_L(d)</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E46,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G46,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
-      </c>
-      <c r="I46" s="10">
-        <v>5929</v>
-      </c>
-      <c r="J46" s="10">
-        <v>487</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_Fsw_Fsw(d)</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E47,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G47,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
-      </c>
-      <c r="I47" s="10">
-        <v>3905</v>
-      </c>
-      <c r="J47" s="10">
-        <v>321</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>T2_Sc_Sc(d)</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="10" t="str">
-        <f>_xlfn.XLOOKUP(E48,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="10" t="str">
-        <f>_xlfn.XLOOKUP(G48,[1]Inputs!N$6:N$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
-      </c>
-      <c r="I48" s="10">
-        <v>1961</v>
-      </c>
-      <c r="J48" s="10">
-        <v>161</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,8 +2453,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3168,11 +2521,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D2,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
+        <v>64</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>27</v>
@@ -3202,11 +2554,10 @@
         <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D3,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
+        <v>65</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -3236,11 +2587,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D4,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -3270,11 +2620,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D5,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Forest</v>
+        <v>95</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -3306,9 +2655,8 @@
       <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D6,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Coniferous Forest</v>
+      <c r="E6" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>27</v>
@@ -3338,11 +2686,10 @@
         <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D7,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>27</v>
@@ -3361,7 +2708,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="str">
@@ -3372,11 +2719,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D8,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Littoral Forest</v>
+        <v>80</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>27</v>
@@ -3395,7 +2741,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="str">
@@ -3406,11 +2752,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D9,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Seral Forest</v>
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>27</v>
@@ -3429,7 +2774,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="str">
@@ -3440,11 +2785,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D10,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
+        <v>68</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>27</v>
@@ -3463,7 +2807,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="str">
@@ -3474,11 +2818,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D11,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Savanna</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>27</v>
@@ -3497,7 +2840,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="str">
@@ -3508,11 +2851,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D12,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
+        <v>82</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>27</v>
@@ -3531,7 +2873,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="str">
@@ -3542,11 +2884,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D13,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
+        <v>83</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>27</v>
@@ -3576,11 +2917,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D14,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Mangrove</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>27</v>
@@ -3599,6 +2939,1510 @@
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_P_RS</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_H_RS</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_L_RS</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="H17" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Mo_RS</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_C_RS</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="H19" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_D_RS</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_B_RS</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fri_RS</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="H22" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fsw_RS</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sa_RS</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_W_RS</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H25" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sc_RS</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="H26" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_M_RS</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_P(d)_DG_ratio</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.17989550337410998</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="4">
+        <f>ROUND((G28*(1-G28)/(H28*H28)-1)*G28,3)</f>
+        <v>3.919</v>
+      </c>
+      <c r="K28" s="4">
+        <f>ROUND((G28*(1-G28)/(H28*H28)-1)*(1-G28),3)</f>
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_H(d)_DG_ratio</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.17989550337410998</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" ref="J29:J40" si="1">ROUND((G29*(1-G29)/(H29*H29)-1)*G29,3)</f>
+        <v>3.919</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29:K40" si="2">ROUND((G29*(1-G29)/(H29*H29)-1)*(1-G29),3)</f>
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_L(d)_DG_ratio</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Mo(d)_DG_ratio</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_C(d)_DG_ratio</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_D(d)_DG_ratio</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_B(d)_DG_ratio</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.17989550337410998</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>3.919</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fri(d)_DG_ratio</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.17989550337410998</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>3.919</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fsw(d)_DG_ratio</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.17989550337410998</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
+        <v>3.919</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sa(d)_DG_ratio</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_W(d)_DG_ratio</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sc(d)_DG_ratio</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_M(d)_DG_ratio</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.23004319481442678</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Crop_ALL</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sett_ALL</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{3D7EF7D9-A43C-A04A-950F-6332D8AE5CD1}">
+      <formula1>"AGB,BGB,DW,LI,SOC,ALL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77397F2F-28A9-1845-BAF1-1C84C09FEA61}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="str">
+        <f>C2&amp;"_"&amp;D2&amp;"_"&amp;F2</f>
+        <v>ALL_P_AGB</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="11">
+        <v>305.51</v>
+      </c>
+      <c r="H2" s="11">
+        <v>65.241</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f t="shared" ref="B3:B44" si="0">C3&amp;"_"&amp;D3&amp;"_"&amp;F3</f>
+        <v>ALL_H_AGB</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11">
+        <v>305.51</v>
+      </c>
+      <c r="H3" s="11">
+        <v>65.241</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_L_AGB</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="11">
+        <v>177.8</v>
+      </c>
+      <c r="H4" s="11">
+        <v>53.34</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Mo_AGB</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11">
+        <v>177.8</v>
+      </c>
+      <c r="H5" s="11">
+        <v>53.34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_C_AGB</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="11">
+        <v>177.8</v>
+      </c>
+      <c r="H6" s="11">
+        <v>53.34</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_D_AGB</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11">
+        <v>166.4</v>
+      </c>
+      <c r="H7" s="11">
+        <v>49.92</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_B_AGB</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4">
+        <v>305.51</v>
+      </c>
+      <c r="H8" s="4">
+        <v>65.241</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fri_AGB</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4">
+        <v>305.51</v>
+      </c>
+      <c r="H9" s="4">
+        <v>65.241</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Fsw_AGB</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4">
+        <v>305.51</v>
+      </c>
+      <c r="H10" s="4">
+        <v>65.241</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sa_AGB</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4">
+        <v>166.4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>49.92</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_W_AGB</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4">
+        <v>166.4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>49.92</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sc_AGB</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_M_AGB</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11">
+        <v>286.08</v>
+      </c>
+      <c r="H14" s="11">
+        <v>85.823999999999998</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3610,10 +4454,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>27</v>
@@ -3643,14 +4487,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D16,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
+        <v>64</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G16" s="12">
         <v>0.37</v>
@@ -3677,14 +4520,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D17,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
+        <v>65</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G17" s="12">
         <v>0.37</v>
@@ -3711,14 +4553,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D18,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
+        <v>66</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G18" s="12">
         <v>0.27</v>
@@ -3745,14 +4586,13 @@
         <v>30</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D19,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Forest</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G19" s="12">
         <v>0.27</v>
@@ -3781,12 +4621,11 @@
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D20,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Coniferous Forest</v>
+      <c r="E20" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G20" s="13">
         <v>0.27</v>
@@ -3813,14 +4652,13 @@
         <v>30</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D21,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G21" s="13">
         <v>0.28000000000000003</v>
@@ -3847,14 +4685,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D22,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Littoral Forest</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G22" s="13">
         <v>0.37</v>
@@ -3881,14 +4718,13 @@
         <v>30</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D23,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Seral Forest</v>
+        <v>96</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G23" s="13">
         <v>0.37</v>
@@ -3915,14 +4751,13 @@
         <v>30</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D24,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
+        <v>68</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G24" s="13">
         <v>0.37</v>
@@ -3949,14 +4784,13 @@
         <v>30</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D25,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Savanna</v>
+        <v>81</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G25" s="13">
         <v>0.28000000000000003</v>
@@ -3983,14 +4817,13 @@
         <v>30</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D26,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
+        <v>82</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G26" s="12">
         <v>0.28000000000000003</v>
@@ -4017,14 +4850,13 @@
         <v>30</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D27,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
+        <v>83</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G27" s="12">
         <v>0.4</v>
@@ -4051,14 +4883,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="12" t="str">
-        <f>_xlfn.XLOOKUP(D28,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Mangrove</v>
+        <v>84</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G28" s="12">
         <v>0.49</v>
@@ -4085,13 +4916,13 @@
         <v>30</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G29" s="12">
         <v>0.37</v>
@@ -4112,17 +4943,16 @@
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_P_DG_ratio</v>
+        <v>ALL_P(d)_DG_ratio</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D30,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Plains and Fans</v>
+        <v>71</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>48</v>
@@ -4152,17 +4982,16 @@
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_H_DG_ratio</v>
+        <v>ALL_H(d)_DG_ratio</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D31,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Low Altitude Forest on Uplands</v>
+        <v>72</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>48</v>
@@ -4192,17 +5021,16 @@
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_L_DG_ratio</v>
+        <v>ALL_L(d)_DG_ratio</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D32,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Lower Montane Forest</v>
+        <v>73</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>48</v>
@@ -4232,17 +5060,16 @@
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_Mo_DG_ratio</v>
+        <v>ALL_Mo(d)_DG_ratio</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D33,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Forest</v>
+        <v>100</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>48</v>
@@ -4272,17 +5099,16 @@
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_C_DG_ratio</v>
+        <v>ALL_C(d)_DG_ratio</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D34,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Montane Coniferous Forest</v>
+        <v>101</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>48</v>
@@ -4312,17 +5138,16 @@
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_D_DG_ratio</v>
+        <v>ALL_D(d)_DG_ratio</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D35,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Dry Seasonal Forest</v>
+        <v>87</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>48</v>
@@ -4352,17 +5177,16 @@
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_B_DG_ratio</v>
+        <v>ALL_B(d)_DG_ratio</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D36,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Littoral Forest</v>
+        <v>88</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>48</v>
@@ -4392,17 +5216,16 @@
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_Fri_DG_ratio</v>
+        <v>ALL_Fri(d)_DG_ratio</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D37,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Seral Forest</v>
+        <v>102</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>48</v>
@@ -4432,17 +5255,16 @@
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_Fsw_DG_ratio</v>
+        <v>ALL_Fsw(d)_DG_ratio</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D38,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Swamp Forest </v>
+        <v>89</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>48</v>
@@ -4472,17 +5294,16 @@
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_Sa_DG_ratio</v>
+        <v>ALL_Sa(d)_DG_ratio</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D39,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Savanna</v>
+        <v>90</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>48</v>
@@ -4512,17 +5333,16 @@
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_W_DG_ratio</v>
+        <v>ALL_W(d)_DG_ratio</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D40,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v xml:space="preserve">Woodland </v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>48</v>
@@ -4552,17 +5372,16 @@
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_Sc_DG_ratio</v>
+        <v>ALL_Sc(d)_DG_ratio</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D41,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Scrub</v>
+        <v>91</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>48</v>
@@ -4592,17 +5411,16 @@
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ALL_M_DG_ratio</v>
+        <v>ALL_M(d)_DG_ratio</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="11" t="str">
-        <f>_xlfn.XLOOKUP(D42,[1]Inputs!M$6:M$18,[1]Inputs!O$6:O$18)</f>
-        <v>Mangrove</v>
+        <v>92</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>48</v>
@@ -4626,9 +5444,75 @@
       </c>
       <c r="L42" s="4"/>
     </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Crop_ALL</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALL_Sett_ALL</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14 D16:D28" xr:uid="{3D7EF7D9-A43C-A04A-950F-6332D8AE5CD1}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14 D16:D28" xr:uid="{CB3F9E88-8862-A945-B89B-040099120959}">
       <formula1>"AGB,BGB,DW,LI,SOC,ALL"</formula1>
     </dataValidation>
   </dataValidations>
